--- a/Desktop/Amir/Borang baru Edited/Digestion/Gerhadt/RB & IQC.xlsx
+++ b/Desktop/Amir/Borang baru Edited/Digestion/Gerhadt/RB & IQC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\Amir\Borang baru Edited\Digestion\Gerhadt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\Digestion\Gerhadt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545C801-4517-43D2-B076-6F19E12CDFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711C7FD-2D65-482F-A0DD-072C7FC07963}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Form" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -720,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -737,11 +726,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,7 +761,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -776,8 +773,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,110 +789,26 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -903,30 +818,193 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2191,77 +2269,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>337039</xdr:colOff>
+      <xdr:colOff>351693</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="542192" cy="264560"/>
-    <xdr:sp macro="" textlink="Form!G4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4022481" y="1150326"/>
-          <a:ext cx="542192" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:fld id="{EA4FE585-880B-4659-995A-56EC957A4FE6}" type="TxLink">
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr/>
-            <a:t> </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>373673</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="593481" cy="264560"/>
+    <xdr:ext cx="593481" cy="436786"/>
     <xdr:sp macro="" textlink="[1]FormGerhadt!$H$2">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
@@ -2275,8 +2287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4059115" y="1157653"/>
-          <a:ext cx="593481" cy="264560"/>
+          <a:off x="4037135" y="1157654"/>
+          <a:ext cx="593481" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2895,7 +2907,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -2965,7 +2977,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3031,7 +3043,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -3856,82 +3868,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>58614</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="359018" cy="439617"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4344867" y="1883018"/>
-          <a:ext cx="359018" cy="439617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B:</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>212481</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>58617</xdr:rowOff>
@@ -4079,86 +4015,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>203687</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="359018" cy="439617"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4343402" y="2980591"/>
-          <a:ext cx="359018" cy="439617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B:</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>278424</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>205153</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1033096" cy="248851"/>
     <xdr:sp macro="" textlink="[1]FormGerhadt!$E$2">
@@ -4174,7 +4034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4623289" y="2982057"/>
+          <a:off x="4623289" y="2586403"/>
           <a:ext cx="1033096" cy="248851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4233,8 +4093,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>256443</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>271096</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1047750" cy="248851"/>
     <xdr:sp macro="" textlink="[1]FormGerhadt!$E$3">
@@ -4250,7 +4110,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4601308" y="3165231"/>
+          <a:off x="4601308" y="2769577"/>
           <a:ext cx="1047750" cy="248851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4427,7 +4287,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4493,7 +4353,7 @@
               <a:cs typeface="Times New Roman"/>
             </a:rPr>
             <a:pPr/>
-            <a:t> </a:t>
+            <a:t>0.000</a:t>
           </a:fld>
           <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
@@ -4581,11 +4441,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="FormGerhadt"/>
       <sheetName val="SAMPEL 1 "/>
@@ -4601,41 +4458,56 @@
       <sheetName val="SAMPEL 11"/>
       <sheetName val="SAMPEL 12"/>
       <sheetName val="SAMPEL 13"/>
-      <sheetName val="SAMPEL 14"/>
+      <sheetName val="SAMPEL 14)"/>
       <sheetName val="SAMPEL 15"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="32">
           <cell r="B32" t="str">
             <v>Sila Pilih</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4673,7 +4545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4779,7 +4651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4921,7 +4793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4932,8 +4804,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,368 +4815,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="34"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="19">
         <f>[1]FormGerhadt!$B$24</f>
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="29">
         <f>[1]FormGerhadt!$B$25</f>
         <v>0</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="22" t="b">
+      <c r="C4" s="28"/>
+      <c r="D4" s="26" t="b">
         <f>IF(B4="Microwave", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="22" t="b">
+      <c r="E4" s="26" t="b">
         <f>IF(B4="Gerhadt 1", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22" t="b">
+      <c r="F4" s="26" t="b">
         <f>IF(B4="Gerhadt 2", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="26" t="str">
         <f>IF(E4=TRUE,"GH1","")</f>
         <v/>
       </c>
-      <c r="H4" s="22" t="str">
+      <c r="H4" s="26" t="str">
         <f>IF(F4=TRUE,"GH2","")</f>
         <v/>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="22" t="b">
+      <c r="J4" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="21"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="21" t="str">
         <f>[1]FormGerhadt!$B$32</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="19">
         <f>[1]FormGerhadt!$B$4</f>
         <v>0</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="M7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="D8" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="D9">
+      <c r="B9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28">
         <v>4122020</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="15">
-        <f>[1]FormGerhadt!$B$26</f>
+      <c r="B10" s="30">
+        <f>[1]FormGerhadt!$B$27</f>
         <v>0</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="M10" s="21"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="b">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="b">
         <f>IF(B11="serbuk", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="22" t="b">
+      <c r="E11" s="26" t="b">
         <f>IF(B11="cecair", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="22" t="b">
+      <c r="F11" s="26" t="b">
         <f>IF(B11="pil", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="22" t="b">
+      <c r="G11" s="26" t="b">
         <f>IF(B11="kapsul lembut", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="22" t="b">
+      <c r="H11" s="26" t="b">
         <f>IF(B11="krim/salap", TRUE)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="M11" s="21"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="M12" s="21"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="19">
         <f>[1]FormGerhadt!$B$5</f>
         <v>0</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="M13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="27">
         <f>[1]FormGerhadt!$F$5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="M14" s="21"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="M15" s="21"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="19">
         <f>[1]FormGerhadt!$B$6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="M16" s="21"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="27">
         <f>[1]FormGerhadt!$F$6</f>
         <v>0</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="M17" s="21"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="M18" s="21"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="19">
         <f>[1]FormGerhadt!$B$7</f>
         <v>0</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="M19" s="21"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="27">
         <f>[1]FormGerhadt!$F$7</f>
         <v>0</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5313,66 +5247,104 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="22" priority="35">
+      <formula>LEN(B2)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="34">
-      <formula>LEN(B2)=0</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="20" priority="34">
+      <formula>LEN(B3)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="equal">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+      <formula>"Sila Pilih"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="expression" dxfId="16" priority="30">
+      <formula>LEN(B6)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B10">
-    <cfRule type="expression" dxfId="8" priority="25">
-      <formula>LEN(B6)=0</formula>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="14" priority="29">
+      <formula>LEN(B7)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="13" priority="28">
+      <formula>LEN(B8)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="12" priority="27">
+      <formula>LEN(B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="expression" dxfId="11" priority="25">
+      <formula>LEN(B10)=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="6" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"Sila Pilih"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="5" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>LEN(B13)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>LEN(B16)=0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>LEN(B19)=0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5394,10 +5366,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4C204-5140-4A19-BEE4-C842A1DA29A4}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,101 +5384,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="55">
+      <c r="B3" s="67"/>
+      <c r="C3" s="74">
         <f>Form!B2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="56">
+      <c r="B4" s="67"/>
+      <c r="C4" s="75">
         <f>Form!B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="60" t="str">
+      <c r="B7" s="67"/>
+      <c r="C7" s="79" t="str">
         <f>Form!B5</f>
         <v>Sila Pilih</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -5524,76 +5496,78 @@
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="20">
         <f>Form!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="15">
         <f>Form!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="64">
         <f>Form!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="17">
         <f>Form!B9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -5608,11 +5582,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5620,248 +5594,270 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="29" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30">
+      <c r="E20" s="81"/>
+      <c r="F20" s="82">
         <f>Form!B13</f>
         <v>0</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="14" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="73" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="35" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="29" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30">
+      <c r="E25" s="81"/>
+      <c r="F25" s="82">
         <f>Form!B16</f>
         <v>0</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="14" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="67" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="64" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="35" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="55"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="29" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30">
+      <c r="E30" s="81"/>
+      <c r="F30" s="82">
         <f>Form!B19</f>
         <v>0</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="14" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="67" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="8"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="64" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="35" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="36"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="G34:H34"/>
@@ -5878,30 +5874,18 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
